--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value262.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value262.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.719370131630948</v>
+        <v>2.070405244827271</v>
       </c>
       <c r="B1">
-        <v>0.8594220230198428</v>
+        <v>2.523457288742065</v>
       </c>
       <c r="C1">
-        <v>1.137769409203491</v>
+        <v>2.618856430053711</v>
       </c>
       <c r="D1">
-        <v>2.586303638180464</v>
+        <v>3.253490447998047</v>
       </c>
       <c r="E1">
-        <v>3.522658599877099</v>
+        <v>0.8091923594474792</v>
       </c>
     </row>
   </sheetData>
